--- a/publishers.xlsx
+++ b/publishers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -32,6 +32,33 @@
   </si>
   <si>
     <t>up</t>
+  </si>
+  <si>
+    <t>R.k_Prints</t>
+  </si>
+  <si>
+    <t>MUZaffarpur</t>
+  </si>
+  <si>
+    <t>Laxmi_Chowk</t>
+  </si>
+  <si>
+    <t>M.k_Prints</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Gola_Road</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>chai</t>
   </si>
 </sst>
 </file>
@@ -408,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -445,6 +472,188 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>301</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>302</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>309</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>312</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>314</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
